--- a/tamu/Spring 2023/ENGR 216/Homework/Homework 3/Module 3 activity blank.JM.xlsx
+++ b/tamu/Spring 2023/ENGR 216/Homework/Homework 3/Module 3 activity blank.JM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\second brain\tamu\Spring 2023\ENGR 216\Homework\Homework 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8F5AA6-B72D-450D-8032-8D065A737730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A13A12-5395-40E0-A33F-ACBEC79C1CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{72B3C4D6-AE1C-40E6-A3EE-B3A6F9BF68B7}"/>
   </bookViews>
@@ -4675,6 +4675,719 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>-6.4000000000000168E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.239999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7599999999999977E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5200000000000062E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.759999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7600000000000068E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7200000000000028E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3999999999999933E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0400000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.440000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.8000000000000166E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.9999999999996981E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7999999999999723E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3600000000000036E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.159999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7600000000000029E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4399999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.800000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0399999999999976E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1600000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.9999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6400000000000026E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0800000000000055E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3599999999999741E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4400000000000368E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3199999999999768E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9999999999999462E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.0800000000000033E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.3999999999999464E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.6000000000000697E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.8799999999999955E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.9599999999999627E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.8399999999999763E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.6800000000000774E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.1599999999999537E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.3599999999999855E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.4000000000000359E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.0399999999999465E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.4800000000000474E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.5200000000000093E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.4399999999999726E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.00000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.3999999999999855E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.799999999999917E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0799999999999809E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0400000000000149E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7999999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.559999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1599999999999954E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.5599999999999938E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0640000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1439999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1920000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1679999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9199999999999948E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.4800000000000205E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.679999999999975E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.6800000000000062E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4000000000000132E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.9999999999957885E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.4799999999999709E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-4.8799999999999955E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-7.28000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-9.5199999999999833E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1439999999999905E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.3120000000000121E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.4399999999999977E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>2.3600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1600000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7599999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2800000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9999999999999798E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.999999999999674E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5999999999999247E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.240000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9199999999999933E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5200000000000062E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9999999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.440000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.6399999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7999999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.4399999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.4399999999999977E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6800000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.3999999999999906E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5999999999999904E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1199999999999932E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1600000000000091E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.240000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1199999999999544E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0400000000000488E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6799999999999785E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3199999999999784E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6000000000000364E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6799999999999932E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6399999999999793E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2000000000000085E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6000000000000051E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7599999999999917E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6800000000000053E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.400000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.039999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.7999999999998597E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.9999999999999905E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.6400000000000265E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.1200000000000022E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.479999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.7199999999999856E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.7999999999999919E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.520000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0079999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.0160000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.0039999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-9.520000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.6400000000000088E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-7.5599999999999669E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.0400000000000124E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4.3200000000000131E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.4399999999999977E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.5999999999999368E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7999999999999904E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.9200000000000346E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.079999999999963E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.9999999999999741E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.8400000000000883E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1279999999999929E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2560000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3400000000000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3759999999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3759999999999977E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3360000000000056E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2440000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1159999999999958E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.360000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4000000000000177E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.9999999999999932E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0115-4D26-9AFE-1C5ED612D40D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="748728096"/>
+        <c:axId val="748725184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="748728096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748725184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="748725184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748728096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4915,6 +5628,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7496,6 +8249,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8229,6 +9498,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC297476-3CE2-6EA2-7228-6E67131AB9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8531,8 +9836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B6E0FD-F3AF-422F-AC42-155159169B14}">
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8706,7 +10011,7 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D3:D66" si="3">(B7-B6)/(A7-A6)</f>
+        <f t="shared" ref="D6:D66" si="3">(B7-B6)/(A7-A6)</f>
         <v>3.1400000000000004E-2</v>
       </c>
       <c r="E6">
@@ -10475,11 +11780,11 @@
         <v>-10.66</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D74" si="4">(B68-B67)/(A68-A67)</f>
+        <f t="shared" ref="D67:D73" si="4">(B68-B67)/(A68-A67)</f>
         <v>0.40199999999999997</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E74" si="5">(C68-C67)/(A68-A67)</f>
+        <f t="shared" ref="E67:E73" si="5">(C68-C67)/(A68-A67)</f>
         <v>0.13679999999999987</v>
       </c>
       <c r="F67">
